--- a/data/coincident_index/indices_details_with_index.xlsx
+++ b/data/coincident_index/indices_details_with_index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t>files</t>
   </si>
@@ -116,12 +116,6 @@
     <t>CL</t>
   </si>
   <si>
-    <t>Gasoline RBOB Futures Historical Data (RBN9)</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
     <t>Gold Futures (GCQ9)</t>
   </si>
   <si>
@@ -149,12 +143,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Aluminum Futures Historical Data (MALTR)</t>
-  </si>
-  <si>
-    <t>MAL</t>
-  </si>
-  <si>
     <t>US Sugar #11 Futures (SBN9)</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
     <t>BCOM</t>
   </si>
   <si>
-    <t>US30</t>
-  </si>
-  <si>
     <t>VIX</t>
   </si>
   <si>
@@ -203,6 +188,9 @@
     <t>Index</t>
   </si>
   <si>
+    <t>Japanese Yen US Dollar (JPYUSD)</t>
+  </si>
+  <si>
     <t>Canadian Dollar US Dollar (CADUSD)</t>
   </si>
   <si>
@@ -212,18 +200,21 @@
     <t>British Pound US Dollar (GBPUSD)</t>
   </si>
   <si>
+    <t>Indian Rupee US Dollar (INRUSD)</t>
+  </si>
+  <si>
     <t>Bloomberg Commodity (BCOM)</t>
   </si>
   <si>
-    <t>Dow Jones 30 Contract (US30)</t>
-  </si>
-  <si>
     <t>CBOE Volatility Index (VIX)</t>
   </si>
   <si>
     <t>S&amp;P 500 Contract (US500)</t>
   </si>
   <si>
+    <t>JPY_USD</t>
+  </si>
+  <si>
     <t>CAD_USD</t>
   </si>
   <si>
@@ -233,6 +224,9 @@
     <t>GBP_USD</t>
   </si>
   <si>
+    <t>INR_USD</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -281,7 +275,13 @@
     <t>HKNV</t>
   </si>
   <si>
-    <t>3 pairs</t>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FHJKQUVX</t>
+  </si>
+  <si>
+    <t>Feeder Cattle Futures (FCQ9)</t>
   </si>
   <si>
     <t>COMMODITY_LIVESTOCK</t>
@@ -303,6 +303,27 @@
   </si>
   <si>
     <t>EXCHANGE</t>
+  </si>
+  <si>
+    <t>Gas Oil Futures (LGOQ9)</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>FJNV</t>
+  </si>
+  <si>
+    <t>Platinum Futures (PLN9)</t>
+  </si>
+  <si>
+    <t>S&amp;P GSCI Commodity Total Return (SPGSCITR)</t>
+  </si>
+  <si>
+    <t>SPGSCITR</t>
   </si>
 </sst>
 </file>
@@ -728,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +760,7 @@
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -750,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -773,13 +794,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -796,13 +817,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -819,13 +840,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -844,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -867,13 +888,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -890,13 +911,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -913,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -936,13 +957,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -955,19 +976,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -977,91 +998,91 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="9"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="9"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4">
         <v>3</v>
@@ -1071,43 +1092,43 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="9"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1">
         <v>4</v>
@@ -1118,71 +1139,71 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>31</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
@@ -1192,91 +1213,91 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5</v>
-      </c>
-      <c r="G20" s="5"/>
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="9"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="9"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5">
         <v>5</v>
@@ -1286,68 +1307,66 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="9"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1">
         <v>6</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="9"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1">
         <v>6</v>
@@ -1357,91 +1376,91 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="6">
-        <v>7</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="6">
-        <v>7</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="9"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="6">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6"/>
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="9"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="6">
         <v>7</v>
@@ -1449,6 +1468,77 @@
       <c r="G30" s="6"/>
       <c r="H30" s="9"/>
       <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="6">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="6">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="6">
+        <v>7</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
